--- a/slides/class_4/IDEA Part B FY 2011 to FY 2022 .xlsx
+++ b/slides/class_4/IDEA Part B FY 2011 to FY 2022 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakaput/Documents/GitHub/2023_bw_sped_tool/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakaput/Documents/GitHub/quant_plc_rclass/slides/class_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4F1E38-9B0F-C545-B493-4749A142E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F183E0E-32A0-EE45-A2DA-E1EBF6AA5371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33660" yWindow="1900" windowWidth="32960" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grants to States" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="89">
   <si>
     <t>State</t>
   </si>
@@ -247,6 +247,48 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>FY2010</t>
+  </si>
+  <si>
+    <t>FY2011</t>
+  </si>
+  <si>
+    <t>FY2012</t>
+  </si>
+  <si>
+    <t>FY2013</t>
+  </si>
+  <si>
+    <t>FY2014</t>
+  </si>
+  <si>
+    <t>FY2015</t>
+  </si>
+  <si>
+    <t>FY2016</t>
+  </si>
+  <si>
+    <t>FY2017</t>
+  </si>
+  <si>
+    <t>FY2018</t>
+  </si>
+  <si>
+    <t>FY2019</t>
+  </si>
+  <si>
+    <t>FY2020</t>
+  </si>
+  <si>
+    <t>FY2021</t>
+  </si>
+  <si>
+    <t>FY2022</t>
+  </si>
+  <si>
+    <t>FY2023</t>
   </si>
 </sst>
 </file>
@@ -725,7 +767,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -738,46 +780,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
